--- a/Templates/ExcelTemplate.xlsx
+++ b/Templates/ExcelTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y\Documents\GitHub\PowerPlatform-PowerApps-PowerAutomate-OfficeTemplates\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F856B1E-CCE8-4E20-BEE2-8823960C5EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2702DF3-5E70-48B1-A905-C27F4B2A9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -138,19 +138,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -167,10 +268,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43E0F5E6-15BE-4198-827C-88F79B733D3E}" name="Details" displayName="Details" ref="A1:D2" insertRow="1" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{43E0F5E6-15BE-4198-827C-88F79B733D3E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{56D7C8E3-937E-4DD6-91E5-5A43F4E8E8F2}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{BD97F80A-691E-409F-88B5-FB6F41D6E6F0}" name="UnitPrice"/>
-    <tableColumn id="4" xr3:uid="{7270685A-C73F-4840-ABFA-6665B3696327}" name="Amount"/>
-    <tableColumn id="5" xr3:uid="{2B5250F6-16D1-49FE-842A-0FB7AF137973}" name="Price"/>
+    <tableColumn id="1" xr3:uid="{56D7C8E3-937E-4DD6-91E5-5A43F4E8E8F2}" name="Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{BD97F80A-691E-409F-88B5-FB6F41D6E6F0}" name="UnitPrice" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7270685A-C73F-4840-ABFA-6665B3696327}" name="Amount" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{2B5250F6-16D1-49FE-842A-0FB7AF137973}" name="Price" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,16 +563,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="0.5" customHeight="1"/>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <f>SUM(Details[Amount])</f>
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>SUM(Details[Price])</f>
         <v>0</v>
       </c>
